--- a/Pythonscripts/testdatas/core_customer.xlsx
+++ b/Pythonscripts/testdatas/core_customer.xlsx
@@ -1,80 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>客户名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行通用结算户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customer_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>daqiang.zhou@dcfservice.net</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>广东中外运供应链管理有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3110 2100 0107 1006 227</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李宣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C0000012222</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>周大强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zdq1118070229</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3110 2014 6777 1180 188</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行通用结算户</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试核心企业0711183826</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +96,19 @@
       <color theme="10"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -125,7 +138,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -133,6 +146,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -433,7 +449,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -441,56 +457,56 @@
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="17.75" customWidth="1"/>
     <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="32.875" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
     <col min="7" max="7" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
         <v>18751986831</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -521,7 +537,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
